--- a/TOBD/4/себестоимостьА_в1.xlsx
+++ b/TOBD/4/себестоимостьА_в1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\ShaRinGan\TOBD\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD30FC-9123-42F8-A0B2-33F044EB02F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DBB338-6836-41BC-8D70-0226211BDF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецептура" sheetId="3" r:id="rId1"/>
-    <sheet name="Цена ресурсов" sheetId="5" r:id="rId2"/>
+    <sheet name="Цена ресурсов" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="пшеничный_хлеб">Рецептура!$B$3:$T$16</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -346,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -494,19 +494,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,107 +561,107 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,8 +980,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="B3:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:AD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,124 +992,126 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="33" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1169,7 +1158,7 @@
       <c r="S7" s="4">
         <v>0.3</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="49">
         <f t="shared" ref="T7:T13" si="0">SUMPRODUCT(G7:R7,$G$14:$R$14)</f>
         <v>21.48</v>
       </c>
@@ -1219,7 +1208,7 @@
       <c r="S8" s="4">
         <v>0.2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="49">
         <f t="shared" si="0"/>
         <v>16.524999999999999</v>
       </c>
@@ -1269,7 +1258,7 @@
       <c r="S9" s="4">
         <v>0.3</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="49">
         <f t="shared" si="0"/>
         <v>17.423000000000002</v>
       </c>
@@ -1315,7 +1304,7 @@
       <c r="S10" s="4">
         <v>0.2</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="49">
         <f t="shared" si="0"/>
         <v>18.085000000000001</v>
       </c>
@@ -1341,7 +1330,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="23">
+      <c r="T11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1367,7 +1356,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="23">
+      <c r="T12" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1393,19 +1382,19 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="23">
+      <c r="T13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="7">
         <f>VLOOKUP(G5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -1451,17 +1440,17 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="8">
         <v>0.13400000000000001</v>
       </c>
@@ -1498,17 +1487,17 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1539,122 +1528,122 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="26" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="26" t="s">
+      <c r="S20" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="35" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="50" t="s">
+      <c r="M21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="50" t="s">
+      <c r="N21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="50"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1698,7 +1687,7 @@
       <c r="R23" s="11">
         <v>0.25</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="54">
         <f t="shared" ref="S23:S30" si="1">SUMPRODUCT(G23:Q23,$G$31:$Q$31)</f>
         <v>14.345000000000002</v>
       </c>
@@ -1749,7 +1738,7 @@
       <c r="R24" s="11">
         <v>0.4</v>
       </c>
-      <c r="S24" s="24">
+      <c r="S24" s="54">
         <f t="shared" si="1"/>
         <v>29.750000000000004</v>
       </c>
@@ -1798,7 +1787,7 @@
       <c r="R25" s="11">
         <v>0.35</v>
       </c>
-      <c r="S25" s="24">
+      <c r="S25" s="54">
         <f t="shared" si="1"/>
         <v>10.138000000000002</v>
       </c>
@@ -1823,7 +1812,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="25">
+      <c r="S26" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1848,7 +1837,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="25">
+      <c r="S27" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1873,7 +1862,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="25">
+      <c r="S28" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1898,7 +1887,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="25">
+      <c r="S29" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1923,19 +1912,19 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="22">
+      <c r="S30" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="13">
         <f>VLOOKUP(G21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -1977,17 +1966,17 @@
       <c r="Q31" s="13">
         <v>0</v>
       </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="8">
         <v>0.25</v>
       </c>
@@ -2021,17 +2010,17 @@
       <c r="Q32" s="8">
         <v>0</v>
       </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -2059,182 +2048,182 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="32"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="47"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="47" t="s">
+      <c r="G37" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="26" t="s">
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AC37" s="26" t="s">
+      <c r="AC37" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="47" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="48" t="s">
+      <c r="L38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="48" t="s">
+      <c r="M38" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="48" t="s">
+      <c r="N38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="48" t="s">
+      <c r="O38" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="48" t="s">
+      <c r="P38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="48" t="s">
+      <c r="Q38" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="48" t="s">
+      <c r="R38" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="48" t="s">
+      <c r="S38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T38" s="47" t="s">
+      <c r="T38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="48" t="s">
+      <c r="U38" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="47" t="s">
+      <c r="V38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="W38" s="47" t="s">
+      <c r="W38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="51" t="s">
+      <c r="X38" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
@@ -2294,7 +2283,7 @@
       <c r="AB40" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC40" s="22">
+      <c r="AC40" s="49">
         <f t="shared" ref="AC40:AC51" si="2">SUMPRODUCT(G40:AA40,$G$52:$AA$52)</f>
         <v>38.575000000000003</v>
       </c>
@@ -2355,7 +2344,7 @@
       <c r="AB41" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC41" s="22">
+      <c r="AC41" s="49">
         <f t="shared" si="2"/>
         <v>19.420000000000002</v>
       </c>
@@ -2416,7 +2405,7 @@
       <c r="AB42" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC42" s="22">
+      <c r="AC42" s="49">
         <f t="shared" si="2"/>
         <v>37.055000000000007</v>
       </c>
@@ -2479,7 +2468,7 @@
       <c r="AB43" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC43" s="22">
+      <c r="AC43" s="49">
         <f t="shared" si="2"/>
         <v>29.540000000000003</v>
       </c>
@@ -2540,7 +2529,7 @@
       <c r="AB44" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC44" s="22">
+      <c r="AC44" s="49">
         <f t="shared" si="2"/>
         <v>28.33</v>
       </c>
@@ -2601,7 +2590,7 @@
       <c r="AB45" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC45" s="22">
+      <c r="AC45" s="49">
         <f t="shared" si="2"/>
         <v>22.614999999999998</v>
       </c>
@@ -2658,7 +2647,7 @@
       <c r="AB46" s="4">
         <v>0.2</v>
       </c>
-      <c r="AC46" s="22">
+      <c r="AC46" s="49">
         <f t="shared" si="2"/>
         <v>32.14</v>
       </c>
@@ -2693,7 +2682,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="22">
+      <c r="AC47" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2728,7 +2717,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="22">
+      <c r="AC48" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2763,7 +2752,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="4"/>
-      <c r="AC49" s="22">
+      <c r="AC49" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2798,7 +2787,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="4"/>
-      <c r="AC50" s="22">
+      <c r="AC50" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2833,19 +2822,19 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="4"/>
-      <c r="AC51" s="22">
+      <c r="AC51" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="18">
         <f>VLOOKUP(G38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -2927,17 +2916,17 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="8">
         <v>0.10750000000000001</v>
       </c>
@@ -3001,17 +2990,17 @@
       <c r="AA53" s="8">
         <v>0</v>
       </c>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="14" t="s">
         <v>23</v>
       </c>
@@ -3069,8 +3058,8 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="44"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
@@ -3080,184 +3069,184 @@
       <c r="F55" s="19"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="32"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="46"/>
+      <c r="AD57" s="47"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="47" t="s">
+      <c r="G58" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="47"/>
-      <c r="Y58" s="47"/>
-      <c r="Z58" s="47"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="26" t="s">
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AD58" s="26" t="s">
+      <c r="AD58" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="47" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="48" t="s">
+      <c r="J59" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="48" t="s">
+      <c r="K59" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="48" t="s">
+      <c r="L59" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="48" t="s">
+      <c r="M59" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="48" t="s">
+      <c r="N59" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="48" t="s">
+      <c r="O59" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P59" s="47" t="s">
+      <c r="P59" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q59" s="47" t="s">
+      <c r="Q59" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="R59" s="47" t="s">
+      <c r="R59" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="49" t="s">
+      <c r="S59" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="T59" s="47" t="s">
+      <c r="T59" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="U59" s="47" t="s">
+      <c r="U59" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="V59" s="47" t="s">
+      <c r="V59" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="W59" s="47" t="s">
+      <c r="W59" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="X59" s="47" t="s">
+      <c r="X59" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Y59" s="47" t="s">
+      <c r="Y59" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="41"/>
+      <c r="AD59" s="41"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
-      <c r="X60" s="47"/>
-      <c r="Y60" s="47"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="47"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="42"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
@@ -3316,7 +3305,7 @@
       <c r="AC61" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD61" s="22">
+      <c r="AD61" s="49">
         <f t="shared" ref="AD61:AD72" si="3">SUMPRODUCT(G61:AB61,$G$73:$AB$73)</f>
         <v>7.0549999999999997</v>
       </c>
@@ -3382,7 +3371,7 @@
       <c r="AC62" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD62" s="22">
+      <c r="AD62" s="49">
         <f t="shared" si="3"/>
         <v>9.4149999999999991</v>
       </c>
@@ -3446,7 +3435,7 @@
       <c r="AC63" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD63" s="22">
+      <c r="AD63" s="49">
         <f t="shared" si="3"/>
         <v>9.0549999999999997</v>
       </c>
@@ -3510,7 +3499,7 @@
       <c r="AC64" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD64" s="22">
+      <c r="AD64" s="49">
         <f t="shared" si="3"/>
         <v>7.37</v>
       </c>
@@ -3574,7 +3563,7 @@
       <c r="AC65" s="4">
         <v>0.15</v>
       </c>
-      <c r="AD65" s="22">
+      <c r="AD65" s="49">
         <f t="shared" si="3"/>
         <v>11.172171000000001</v>
       </c>
@@ -3638,7 +3627,7 @@
       <c r="AC66" s="4">
         <v>0.15</v>
       </c>
-      <c r="AD66" s="22">
+      <c r="AD66" s="49">
         <f t="shared" si="3"/>
         <v>17.38020634920635</v>
       </c>
@@ -3700,7 +3689,7 @@
       <c r="AC67" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD67" s="22">
+      <c r="AD67" s="49">
         <f t="shared" si="3"/>
         <v>10.49147619047619</v>
       </c>
@@ -3764,7 +3753,7 @@
       <c r="AC68" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD68" s="22">
+      <c r="AD68" s="49">
         <f t="shared" si="3"/>
         <v>9.2741904761904745</v>
       </c>
@@ -3824,7 +3813,7 @@
       <c r="AC69" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD69" s="22">
+      <c r="AD69" s="49">
         <f t="shared" si="3"/>
         <v>26.588428571428572</v>
       </c>
@@ -3860,7 +3849,7 @@
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="22">
+      <c r="AD70" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3896,7 +3885,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="22">
+      <c r="AD71" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3932,19 +3921,19 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="22">
+      <c r="AD72" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
       <c r="G73" s="18">
         <f>VLOOKUP(G59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -4024,17 +4013,17 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="29"/>
-      <c r="AD73" s="29"/>
+      <c r="AC73" s="44"/>
+      <c r="AD73" s="44"/>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="8">
         <v>4.3429857142857145E-2</v>
       </c>
@@ -4101,17 +4090,17 @@
       <c r="AB74" s="8">
         <v>0</v>
       </c>
-      <c r="AC74" s="29"/>
-      <c r="AD74" s="29"/>
+      <c r="AC74" s="44"/>
+      <c r="AD74" s="44"/>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
@@ -4172,64 +4161,56 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="29"/>
-      <c r="AD75" s="29"/>
+      <c r="AC75" s="44"/>
+      <c r="AD75" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:AA37"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="AD58:AD60"/>
+    <mergeCell ref="AD73:AD75"/>
+    <mergeCell ref="B57:AD57"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="S31:S33"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AC52:AC54"/>
+    <mergeCell ref="B36:AC36"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="AC73:AC75"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:AB58"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="AA59:AA60"/>
+    <mergeCell ref="AB59:AB60"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="AB52:AB54"/>
     <mergeCell ref="B53:F53"/>
@@ -4254,61 +4235,69 @@
     <mergeCell ref="N38:N39"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:AB58"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="AA59:AA60"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="AD58:AD60"/>
-    <mergeCell ref="AD73:AD75"/>
-    <mergeCell ref="B57:AD57"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="B3:T3"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="B19:S19"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="B36:AC36"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="AC73:AC75"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:AA37"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED1825-964E-4F53-9FF4-06D1E4C817FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51150F21-67A8-4A74-A559-1C9DE90D2548}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/TOBD/4/себестоимостьА_в1.xlsx
+++ b/TOBD/4/себестоимостьА_в1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\ShaRinGan\TOBD\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DBB338-6836-41BC-8D70-0226211BDF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D247DF-0C63-45CE-ADCB-9ED260F3EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецептура" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -346,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -494,11 +494,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,107 +574,110 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,8 +996,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="B3:AD75"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:AD57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,124 +1008,124 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1158,7 +1174,7 @@
       <c r="S7" s="4">
         <v>0.3</v>
       </c>
-      <c r="T7" s="49">
+      <c r="T7" s="22">
         <f t="shared" ref="T7:T13" si="0">SUMPRODUCT(G7:R7,$G$14:$R$14)</f>
         <v>21.48</v>
       </c>
@@ -1208,7 +1224,7 @@
       <c r="S8" s="4">
         <v>0.2</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="22">
         <f t="shared" si="0"/>
         <v>16.524999999999999</v>
       </c>
@@ -1258,7 +1274,7 @@
       <c r="S9" s="4">
         <v>0.3</v>
       </c>
-      <c r="T9" s="49">
+      <c r="T9" s="22">
         <f t="shared" si="0"/>
         <v>17.423000000000002</v>
       </c>
@@ -1304,7 +1320,7 @@
       <c r="S10" s="4">
         <v>0.2</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="22">
         <f t="shared" si="0"/>
         <v>18.085000000000001</v>
       </c>
@@ -1330,7 +1346,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="50">
+      <c r="T11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1356,7 +1372,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="50">
+      <c r="T12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1382,19 +1398,19 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="50">
+      <c r="T13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="7">
         <f>VLOOKUP(G5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -1440,17 +1456,17 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="8">
         <v>0.13400000000000001</v>
       </c>
@@ -1487,17 +1503,17 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1528,122 +1544,122 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="55"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="40" t="s">
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="40" t="s">
+      <c r="S20" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="25" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1687,7 +1703,7 @@
       <c r="R23" s="11">
         <v>0.25</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="24">
         <f t="shared" ref="S23:S30" si="1">SUMPRODUCT(G23:Q23,$G$31:$Q$31)</f>
         <v>14.345000000000002</v>
       </c>
@@ -1738,7 +1754,7 @@
       <c r="R24" s="11">
         <v>0.4</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="24">
         <f t="shared" si="1"/>
         <v>29.750000000000004</v>
       </c>
@@ -1787,7 +1803,7 @@
       <c r="R25" s="11">
         <v>0.35</v>
       </c>
-      <c r="S25" s="54">
+      <c r="S25" s="24">
         <f t="shared" si="1"/>
         <v>10.138000000000002</v>
       </c>
@@ -1812,7 +1828,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="55">
+      <c r="S26" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1837,7 +1853,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="55">
+      <c r="S27" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1862,7 +1878,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="55">
+      <c r="S28" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1887,7 +1903,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="55">
+      <c r="S29" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1912,19 +1928,19 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="49">
+      <c r="S30" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="13">
         <f>VLOOKUP(G21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -1966,17 +1982,17 @@
       <c r="Q31" s="13">
         <v>0</v>
       </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="8">
         <v>0.25</v>
       </c>
@@ -2010,17 +2026,17 @@
       <c r="Q32" s="8">
         <v>0</v>
       </c>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -2048,182 +2064,182 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="56"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="40" t="s">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AC37" s="40" t="s">
+      <c r="AC37" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="26" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="28" t="s">
+      <c r="N38" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="28" t="s">
+      <c r="O38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="P38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="28" t="s">
+      <c r="Q38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="28" t="s">
+      <c r="R38" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="28" t="s">
+      <c r="S38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="T38" s="26" t="s">
+      <c r="T38" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="28" t="s">
+      <c r="U38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="26" t="s">
+      <c r="V38" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="W38" s="26" t="s">
+      <c r="W38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="35" t="s">
+      <c r="X38" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
@@ -2283,7 +2299,7 @@
       <c r="AB40" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC40" s="49">
+      <c r="AC40" s="22">
         <f t="shared" ref="AC40:AC51" si="2">SUMPRODUCT(G40:AA40,$G$52:$AA$52)</f>
         <v>38.575000000000003</v>
       </c>
@@ -2344,7 +2360,7 @@
       <c r="AB41" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC41" s="49">
+      <c r="AC41" s="22">
         <f t="shared" si="2"/>
         <v>19.420000000000002</v>
       </c>
@@ -2405,7 +2421,7 @@
       <c r="AB42" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC42" s="49">
+      <c r="AC42" s="22">
         <f t="shared" si="2"/>
         <v>37.055000000000007</v>
       </c>
@@ -2468,7 +2484,7 @@
       <c r="AB43" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC43" s="49">
+      <c r="AC43" s="22">
         <f t="shared" si="2"/>
         <v>29.540000000000003</v>
       </c>
@@ -2529,7 +2545,7 @@
       <c r="AB44" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC44" s="49">
+      <c r="AC44" s="22">
         <f t="shared" si="2"/>
         <v>28.33</v>
       </c>
@@ -2590,7 +2606,7 @@
       <c r="AB45" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC45" s="49">
+      <c r="AC45" s="22">
         <f t="shared" si="2"/>
         <v>22.614999999999998</v>
       </c>
@@ -2647,7 +2663,7 @@
       <c r="AB46" s="4">
         <v>0.2</v>
       </c>
-      <c r="AC46" s="49">
+      <c r="AC46" s="22">
         <f t="shared" si="2"/>
         <v>32.14</v>
       </c>
@@ -2682,7 +2698,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="49">
+      <c r="AC47" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2717,7 +2733,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="49">
+      <c r="AC48" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2752,7 +2768,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="4"/>
-      <c r="AC49" s="49">
+      <c r="AC49" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2787,7 +2803,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="4"/>
-      <c r="AC50" s="49">
+      <c r="AC50" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2822,19 +2838,19 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="4"/>
-      <c r="AC51" s="49">
+      <c r="AC51" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="18">
         <f>VLOOKUP(G38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -2916,17 +2932,17 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="44"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="8">
         <v>0.10750000000000001</v>
       </c>
@@ -2990,17 +3006,17 @@
       <c r="AA53" s="8">
         <v>0</v>
       </c>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="44"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="14" t="s">
         <v>23</v>
       </c>
@@ -3058,8 +3074,8 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="44"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
@@ -3069,184 +3085,184 @@
       <c r="F55" s="19"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="46"/>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="46"/>
-      <c r="AB57" s="46"/>
-      <c r="AC57" s="46"/>
-      <c r="AD57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="48"/>
+      <c r="AB57" s="48"/>
+      <c r="AC57" s="48"/>
+      <c r="AD57" s="49"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="40" t="s">
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AD58" s="40" t="s">
+      <c r="AD58" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="26" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="28" t="s">
+      <c r="I59" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J59" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="28" t="s">
+      <c r="K59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="28" t="s">
+      <c r="L59" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="28" t="s">
+      <c r="M59" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="28" t="s">
+      <c r="N59" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="28" t="s">
+      <c r="O59" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P59" s="26" t="s">
+      <c r="P59" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q59" s="26" t="s">
+      <c r="Q59" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="R59" s="26" t="s">
+      <c r="R59" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="48" t="s">
+      <c r="S59" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T59" s="26" t="s">
+      <c r="T59" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="U59" s="26" t="s">
+      <c r="U59" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="V59" s="26" t="s">
+      <c r="V59" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="W59" s="26" t="s">
+      <c r="W59" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="X59" s="26" t="s">
+      <c r="X59" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Y59" s="26" t="s">
+      <c r="Y59" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
@@ -3305,7 +3321,7 @@
       <c r="AC61" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD61" s="49">
+      <c r="AD61" s="22">
         <f t="shared" ref="AD61:AD72" si="3">SUMPRODUCT(G61:AB61,$G$73:$AB$73)</f>
         <v>7.0549999999999997</v>
       </c>
@@ -3371,7 +3387,7 @@
       <c r="AC62" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD62" s="49">
+      <c r="AD62" s="22">
         <f t="shared" si="3"/>
         <v>9.4149999999999991</v>
       </c>
@@ -3435,7 +3451,7 @@
       <c r="AC63" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD63" s="49">
+      <c r="AD63" s="22">
         <f t="shared" si="3"/>
         <v>9.0549999999999997</v>
       </c>
@@ -3499,7 +3515,7 @@
       <c r="AC64" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD64" s="49">
+      <c r="AD64" s="22">
         <f t="shared" si="3"/>
         <v>7.37</v>
       </c>
@@ -3563,7 +3579,7 @@
       <c r="AC65" s="4">
         <v>0.15</v>
       </c>
-      <c r="AD65" s="49">
+      <c r="AD65" s="22">
         <f t="shared" si="3"/>
         <v>11.172171000000001</v>
       </c>
@@ -3627,7 +3643,7 @@
       <c r="AC66" s="4">
         <v>0.15</v>
       </c>
-      <c r="AD66" s="49">
+      <c r="AD66" s="22">
         <f t="shared" si="3"/>
         <v>17.38020634920635</v>
       </c>
@@ -3689,7 +3705,7 @@
       <c r="AC67" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD67" s="49">
+      <c r="AD67" s="22">
         <f t="shared" si="3"/>
         <v>10.49147619047619</v>
       </c>
@@ -3753,7 +3769,7 @@
       <c r="AC68" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD68" s="49">
+      <c r="AD68" s="22">
         <f t="shared" si="3"/>
         <v>9.2741904761904745</v>
       </c>
@@ -3813,7 +3829,7 @@
       <c r="AC69" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD69" s="49">
+      <c r="AD69" s="22">
         <f t="shared" si="3"/>
         <v>26.588428571428572</v>
       </c>
@@ -3849,7 +3865,7 @@
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="49">
+      <c r="AD70" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3885,7 +3901,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="49">
+      <c r="AD71" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3921,19 +3937,19 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="49">
+      <c r="AD72" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="18">
         <f>VLOOKUP(G59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
@@ -4013,17 +4029,17 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="44"/>
-      <c r="AD73" s="44"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="45"/>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="8">
         <v>4.3429857142857145E-2</v>
       </c>
@@ -4090,17 +4106,17 @@
       <c r="AB74" s="8">
         <v>0</v>
       </c>
-      <c r="AC74" s="44"/>
-      <c r="AD74" s="44"/>
+      <c r="AC74" s="45"/>
+      <c r="AD74" s="45"/>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
@@ -4161,8 +4177,8 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="44"/>
-      <c r="AD75" s="44"/>
+      <c r="AC75" s="45"/>
+      <c r="AD75" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="122">
@@ -4190,16 +4206,6 @@
     <mergeCell ref="Z59:Z60"/>
     <mergeCell ref="O59:O60"/>
     <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="D58:D60"/>
@@ -4211,6 +4217,16 @@
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="AA59:AA60"/>
     <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="AB52:AB54"/>
     <mergeCell ref="B53:F53"/>
@@ -4247,6 +4263,9 @@
     <mergeCell ref="R31:R33"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
@@ -4259,6 +4278,12 @@
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:R4"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -4266,21 +4291,6 @@
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:R4"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
@@ -4288,273 +4298,375 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51150F21-67A8-4A74-A559-1C9DE90D2548}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E23C1B-B031-4C47-8F02-046515424033}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
       <c r="B32">
         <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TOBD/4/себестоимостьА_в1.xlsx
+++ b/TOBD/4/себестоимостьА_в1.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\ShaRinGan\TOBD\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk\Python\Ipynb\TOBD_2020\sems\07_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D247DF-0C63-45CE-ADCB-9ED260F3EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC163B-1424-4E86-88F3-BEF58D538284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецептура" sheetId="3" r:id="rId1"/>
-    <sheet name="Цена ресурсов" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="пшеничный_хлеб">Рецептура!$B$3:$T$16</definedName>
-    <definedName name="ржаной_хлеб">Рецептура!$B$19:$S$33</definedName>
     <definedName name="рцп_пшеничный_хлеб">Рецептура!$B$4:$S$16</definedName>
-    <definedName name="слоеная_выпечка">Рецептура!$B$57:$AD$75</definedName>
     <definedName name="спр_налоги">#REF!</definedName>
-    <definedName name="хлеба_специальной_рецептуры">Рецептура!$B$36:$AC$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -258,9 +253,6 @@
   </si>
   <si>
     <t>Слоеная выпечка</t>
-  </si>
-  <si>
-    <t>Себестоимость</t>
   </si>
 </sst>
 </file>
@@ -346,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -494,24 +486,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,41 +553,83 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,66 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,142 +955,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D06900-8663-427D-827A-294F00285976}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="B3:AD75"/>
+  <dimension ref="B3:AC75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B3" sqref="B3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="52"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="26" t="s">
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29" t="s">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -1174,12 +1125,8 @@
       <c r="S7" s="4">
         <v>0.3</v>
       </c>
-      <c r="T7" s="22">
-        <f t="shared" ref="T7:T13" si="0">SUMPRODUCT(G7:R7,$G$14:$R$14)</f>
-        <v>21.48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1224,12 +1171,8 @@
       <c r="S8" s="4">
         <v>0.2</v>
       </c>
-      <c r="T8" s="22">
-        <f t="shared" si="0"/>
-        <v>16.524999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1274,12 +1217,8 @@
       <c r="S9" s="4">
         <v>0.3</v>
       </c>
-      <c r="T9" s="22">
-        <f t="shared" si="0"/>
-        <v>17.423000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1320,12 +1259,8 @@
       <c r="S10" s="4">
         <v>0.2</v>
       </c>
-      <c r="T10" s="22">
-        <f t="shared" si="0"/>
-        <v>18.085000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1346,12 +1281,8 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1372,12 +1303,8 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1398,53 +1325,40 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="7">
-        <f>VLOOKUP(G5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="H14" s="7">
-        <f>VLOOKUP(H5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <f>VLOOKUP(I5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>184</v>
       </c>
       <c r="J14" s="7">
-        <f>VLOOKUP(J5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>19</v>
       </c>
       <c r="K14" s="7">
-        <f>VLOOKUP(K5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="L14" s="7">
-        <f>VLOOKUP(L5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>290</v>
       </c>
       <c r="M14" s="7">
-        <f>VLOOKUP(M5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>105</v>
       </c>
       <c r="N14" s="7">
-        <f>VLOOKUP(N5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>83</v>
       </c>
       <c r="O14" s="7">
-        <f>VLOOKUP(O5,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>260</v>
       </c>
       <c r="P14" s="7">
@@ -1456,17 +1370,16 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="8">
         <v>0.13400000000000001</v>
       </c>
@@ -1503,17 +1416,16 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="S15" s="43"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1544,124 +1456,117 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+      <c r="S16" s="44"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="55"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="37" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="28" t="s">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="33" t="s">
+      <c r="N21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O21" s="23"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="36"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>8</v>
       </c>
@@ -1703,12 +1608,8 @@
       <c r="R23" s="11">
         <v>0.25</v>
       </c>
-      <c r="S23" s="24">
-        <f t="shared" ref="S23:S30" si="1">SUMPRODUCT(G23:Q23,$G$31:$Q$31)</f>
-        <v>14.345000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>9</v>
       </c>
@@ -1754,12 +1655,8 @@
       <c r="R24" s="11">
         <v>0.4</v>
       </c>
-      <c r="S24" s="24">
-        <f t="shared" si="1"/>
-        <v>29.750000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>10</v>
       </c>
@@ -1803,12 +1700,8 @@
       <c r="R25" s="11">
         <v>0.35</v>
       </c>
-      <c r="S25" s="24">
-        <f t="shared" si="1"/>
-        <v>10.138000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>11</v>
       </c>
@@ -1828,12 +1721,8 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>12</v>
       </c>
@@ -1853,12 +1742,8 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>13</v>
       </c>
@@ -1878,12 +1763,8 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>14</v>
       </c>
@@ -1903,12 +1784,8 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>15</v>
       </c>
@@ -1928,49 +1805,37 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="40" t="s">
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="13">
-        <f>VLOOKUP(G21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="H31" s="13">
-        <f>VLOOKUP(H21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>10</v>
       </c>
       <c r="I31" s="13">
-        <f>VLOOKUP(I21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>10</v>
       </c>
       <c r="J31" s="13">
-        <f>VLOOKUP(J21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>184</v>
       </c>
       <c r="K31" s="13">
-        <f>VLOOKUP(K21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>19</v>
       </c>
       <c r="L31" s="13">
-        <f>VLOOKUP(L21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="M31" s="13">
-        <f>VLOOKUP(M21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>260</v>
       </c>
       <c r="N31" s="13">
-        <f>VLOOKUP(N21,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>108</v>
       </c>
       <c r="O31" s="13">
@@ -1982,17 +1847,16 @@
       <c r="Q31" s="13">
         <v>0</v>
       </c>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="8">
         <v>0.25</v>
       </c>
@@ -2026,17 +1890,16 @@
       <c r="Q32" s="8">
         <v>0</v>
       </c>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
+      <c r="R32" s="38"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -2064,184 +1927,177 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
+      <c r="R33" s="38"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="56"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="37" t="s">
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AC37" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="29" t="s">
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="30" t="s">
+      <c r="O38" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="30" t="s">
+      <c r="P38" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="30" t="s">
+      <c r="Q38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="30" t="s">
+      <c r="R38" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="30" t="s">
+      <c r="S38" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T38" s="29" t="s">
+      <c r="T38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="30" t="s">
+      <c r="U38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="29" t="s">
+      <c r="V38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="W38" s="29" t="s">
+      <c r="W38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="32" t="s">
+      <c r="X38" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="36"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="37"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
         <v>16</v>
       </c>
@@ -2299,12 +2155,8 @@
       <c r="AB40" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC40" s="22">
-        <f t="shared" ref="AC40:AC51" si="2">SUMPRODUCT(G40:AA40,$G$52:$AA$52)</f>
-        <v>38.575000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="15">
         <v>17</v>
       </c>
@@ -2360,12 +2212,8 @@
       <c r="AB41" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC41" s="22">
-        <f t="shared" si="2"/>
-        <v>19.420000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="15">
         <v>18</v>
       </c>
@@ -2421,12 +2269,8 @@
       <c r="AB42" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC42" s="22">
-        <f t="shared" si="2"/>
-        <v>37.055000000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="15">
         <v>19</v>
       </c>
@@ -2484,12 +2328,8 @@
       <c r="AB43" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC43" s="22">
-        <f t="shared" si="2"/>
-        <v>29.540000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="15">
         <v>20</v>
       </c>
@@ -2545,12 +2385,8 @@
       <c r="AB44" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC44" s="22">
-        <f t="shared" si="2"/>
-        <v>28.33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="15">
         <v>21</v>
       </c>
@@ -2606,12 +2442,8 @@
       <c r="AB45" s="4">
         <v>0.15</v>
       </c>
-      <c r="AC45" s="22">
-        <f t="shared" si="2"/>
-        <v>22.614999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="15">
         <v>22</v>
       </c>
@@ -2663,12 +2495,8 @@
       <c r="AB46" s="4">
         <v>0.2</v>
       </c>
-      <c r="AC46" s="22">
-        <f t="shared" si="2"/>
-        <v>32.14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="15">
         <v>23</v>
       </c>
@@ -2698,12 +2526,8 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="15">
         <v>24</v>
       </c>
@@ -2733,12 +2557,8 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="15">
         <v>25</v>
       </c>
@@ -2768,12 +2588,8 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="4"/>
-      <c r="AC49" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="15">
         <v>26</v>
       </c>
@@ -2803,12 +2619,8 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="4"/>
-      <c r="AC50" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="15">
         <v>27</v>
       </c>
@@ -2838,89 +2650,67 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="4"/>
-      <c r="AC51" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B52" s="40" t="s">
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
       <c r="G52" s="18">
-        <f>VLOOKUP(G38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="H52" s="3">
-        <f>VLOOKUP(H38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>12</v>
       </c>
       <c r="I52" s="3">
-        <f>VLOOKUP(I38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>12</v>
       </c>
       <c r="J52" s="3">
-        <f>VLOOKUP(J38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>12</v>
       </c>
       <c r="K52" s="3">
-        <f>VLOOKUP(K38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>12</v>
       </c>
       <c r="L52" s="3">
-        <f>VLOOKUP(L38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>10</v>
       </c>
       <c r="M52" s="18">
-        <f>VLOOKUP(M38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>184</v>
       </c>
       <c r="N52" s="18">
-        <f>VLOOKUP(N38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>19</v>
       </c>
       <c r="O52" s="18">
-        <f>VLOOKUP(O38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="P52" s="18">
-        <f>VLOOKUP(P38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>290</v>
       </c>
       <c r="Q52" s="3">
-        <f>VLOOKUP(Q38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>40</v>
       </c>
       <c r="R52" s="18">
-        <f>VLOOKUP(R38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>83</v>
       </c>
       <c r="S52" s="18">
-        <f>VLOOKUP(S38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>260</v>
       </c>
       <c r="T52" s="3">
-        <f>VLOOKUP(T38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>1</v>
       </c>
       <c r="U52" s="3">
-        <f>VLOOKUP(U38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>18</v>
       </c>
       <c r="V52" s="3">
-        <f>VLOOKUP(V38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>40</v>
       </c>
       <c r="W52" s="3">
-        <f>VLOOKUP(W38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>83</v>
       </c>
       <c r="X52" s="3">
-        <f>VLOOKUP(X38,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>160</v>
       </c>
       <c r="Y52" s="3">
@@ -2932,17 +2722,16 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B53" s="40" t="s">
+      <c r="AB52" s="24"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="8">
         <v>0.10750000000000001</v>
       </c>
@@ -3006,17 +2795,16 @@
       <c r="AA53" s="8">
         <v>0</v>
       </c>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
+      <c r="AB53" s="24"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
       <c r="G54" s="14" t="s">
         <v>23</v>
       </c>
@@ -3074,197 +2862,190 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB54" s="24"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B57" s="47" t="s">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
-      <c r="AB57" s="48"/>
-      <c r="AC57" s="48"/>
-      <c r="AD57" s="49"/>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="34"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B58" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="37" t="s">
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD58" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="29" t="s">
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H59" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="I59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="30" t="s">
+      <c r="J59" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="30" t="s">
+      <c r="L59" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="30" t="s">
+      <c r="M59" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="30" t="s">
+      <c r="N59" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="30" t="s">
+      <c r="O59" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P59" s="29" t="s">
+      <c r="P59" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q59" s="29" t="s">
+      <c r="Q59" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="46" t="s">
+      <c r="S59" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T59" s="29" t="s">
+      <c r="T59" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="U59" s="29" t="s">
+      <c r="U59" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="V59" s="29" t="s">
+      <c r="V59" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="W59" s="29" t="s">
+      <c r="W59" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="X59" s="29" t="s">
+      <c r="X59" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Y59" s="29" t="s">
+      <c r="Y59" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="36"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="37"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
         <v>28</v>
       </c>
@@ -3321,12 +3102,8 @@
       <c r="AC61" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD61" s="22">
-        <f t="shared" ref="AD61:AD72" si="3">SUMPRODUCT(G61:AB61,$G$73:$AB$73)</f>
-        <v>7.0549999999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="15">
         <v>29</v>
       </c>
@@ -3387,12 +3164,8 @@
       <c r="AC62" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD62" s="22">
-        <f t="shared" si="3"/>
-        <v>9.4149999999999991</v>
-      </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" s="15">
         <v>30</v>
       </c>
@@ -3451,12 +3224,8 @@
       <c r="AC63" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD63" s="22">
-        <f t="shared" si="3"/>
-        <v>9.0549999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" s="15">
         <v>31</v>
       </c>
@@ -3515,12 +3284,8 @@
       <c r="AC64" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD64" s="22">
-        <f t="shared" si="3"/>
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65" s="15">
         <v>32</v>
       </c>
@@ -3579,12 +3344,8 @@
       <c r="AC65" s="4">
         <v>0.15</v>
       </c>
-      <c r="AD65" s="22">
-        <f t="shared" si="3"/>
-        <v>11.172171000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66" s="15">
         <v>33</v>
       </c>
@@ -3643,12 +3404,8 @@
       <c r="AC66" s="4">
         <v>0.15</v>
       </c>
-      <c r="AD66" s="22">
-        <f t="shared" si="3"/>
-        <v>17.38020634920635</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67" s="15">
         <v>34</v>
       </c>
@@ -3705,12 +3462,8 @@
       <c r="AC67" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD67" s="22">
-        <f t="shared" si="3"/>
-        <v>10.49147619047619</v>
-      </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68" s="15">
         <v>35</v>
       </c>
@@ -3769,12 +3522,8 @@
       <c r="AC68" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD68" s="22">
-        <f t="shared" si="3"/>
-        <v>9.2741904761904745</v>
-      </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69" s="15">
         <v>36</v>
       </c>
@@ -3829,12 +3578,8 @@
       <c r="AC69" s="4">
         <v>0.1</v>
       </c>
-      <c r="AD69" s="22">
-        <f t="shared" si="3"/>
-        <v>26.588428571428572</v>
-      </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70" s="15">
         <v>37</v>
       </c>
@@ -3865,12 +3610,8 @@
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71" s="15">
         <v>38</v>
       </c>
@@ -3901,12 +3642,8 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72" s="15">
         <v>39</v>
       </c>
@@ -3937,109 +3674,85 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
       <c r="G73" s="18">
-        <f>VLOOKUP(G59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="H73" s="3">
-        <f>VLOOKUP(H59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>10</v>
       </c>
       <c r="I73" s="18">
-        <f>VLOOKUP(I59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>184</v>
       </c>
       <c r="J73" s="18">
-        <f>VLOOKUP(J59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>19</v>
       </c>
       <c r="K73" s="18">
-        <f>VLOOKUP(K59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>7</v>
       </c>
       <c r="L73" s="3">
-        <f>VLOOKUP(L59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>40</v>
       </c>
       <c r="M73" s="3">
-        <f>VLOOKUP(M59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>150</v>
       </c>
       <c r="N73" s="3">
-        <f>VLOOKUP(N59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>4</v>
       </c>
       <c r="O73" s="18">
-        <f>VLOOKUP(O59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>260</v>
       </c>
       <c r="P73" s="3">
-        <f>VLOOKUP(P59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>63</v>
       </c>
       <c r="Q73" s="18">
-        <f>VLOOKUP(Q59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>110</v>
       </c>
       <c r="R73" s="18">
-        <f>VLOOKUP(R59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>270</v>
       </c>
       <c r="S73" s="18">
-        <f>VLOOKUP(S59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>83</v>
       </c>
       <c r="T73" s="3">
-        <f>VLOOKUP(T59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>250</v>
       </c>
       <c r="U73" s="3">
-        <f>VLOOKUP(U59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>280</v>
       </c>
       <c r="V73" s="3">
-        <f>VLOOKUP(V59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>200</v>
       </c>
       <c r="W73" s="3">
-        <f>VLOOKUP(W59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>80</v>
       </c>
       <c r="X73" s="3">
-        <f>VLOOKUP(X59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>25</v>
       </c>
       <c r="Y73" s="3">
-        <f>VLOOKUP(Y59,'Цена ресурсов'!$A$1:$B$32,2,0)</f>
         <v>93</v>
       </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="45"/>
-      <c r="AD73" s="45"/>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="AC73" s="24"/>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
       <c r="G74" s="8">
         <v>4.3429857142857145E-2</v>
       </c>
@@ -4106,17 +3819,16 @@
       <c r="AB74" s="8">
         <v>0</v>
       </c>
-      <c r="AC74" s="45"/>
-      <c r="AD74" s="45"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
+      <c r="AC74" s="24"/>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B75" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
@@ -4177,56 +3889,68 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="45"/>
-      <c r="AD75" s="45"/>
+      <c r="AC75" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="AD58:AD60"/>
-    <mergeCell ref="AD73:AD75"/>
-    <mergeCell ref="B57:AD57"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="B3:T3"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="B19:S19"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="B36:AC36"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="AC73:AC75"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:AB58"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="AA59:AA60"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
+  <mergeCells count="114">
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B36:AB36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:AA37"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="AA38:AA39"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="AB52:AB54"/>
     <mergeCell ref="B53:F53"/>
@@ -4249,427 +3973,41 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:AA37"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B57:AC57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:AB58"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="AA59:AA60"/>
+    <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="AC73:AC75"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E23C1B-B031-4C47-8F02-046515424033}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>184</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>290</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>260</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>160</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
-        <v>150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25">
-        <v>110</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26">
-        <v>270</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>250</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28">
-        <v>280</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TOBD/4/себестоимостьА_в1.xlsx
+++ b/TOBD/4/себестоимостьА_в1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk\Python\Ipynb\TOBD_2020\sems\07_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\ТОБД ЭКЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC163B-1424-4E86-88F3-BEF58D538284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1E1D71-B773-459C-95ED-D5A52EE11F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецептура" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="рцп_пшеничный_хлеб">Рецептура!$B$4:$S$16</definedName>
     <definedName name="спр_налоги">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,92 +553,92 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +958,7 @@
   <dimension ref="B3:AC75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S3"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,118 +967,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="28" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="40"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1327,13 +1327,13 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="7">
         <v>7</v>
       </c>
@@ -1370,62 +1370,74 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="42"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="8">
-        <v>0.13400000000000001</v>
+        <f t="shared" ref="G15:R15" si="0">AVERAGE(G7:G13)</f>
+        <v>0.1275</v>
       </c>
       <c r="H15" s="8">
-        <v>0.28199999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I15" s="8">
-        <v>1.15E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.125E-2</v>
       </c>
       <c r="J15" s="8">
-        <v>1.8000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
       <c r="K15" s="8">
-        <v>1.1699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.225E-2</v>
       </c>
       <c r="L15" s="8">
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M15" s="8">
-        <v>4.1999999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.08</v>
       </c>
       <c r="N15" s="8">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="O15" s="8">
-        <v>1.9000000000000003E-2</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0</v>
-      </c>
-      <c r="S15" s="43"/>
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="P15" s="8" t="e">
+        <f>AVERAGE(P7:P13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="38"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1456,115 +1468,115 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="35" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="23"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="37"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1807,13 +1819,13 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="13">
         <v>7</v>
       </c>
@@ -1847,16 +1859,16 @@
       <c r="Q31" s="13">
         <v>0</v>
       </c>
-      <c r="R31" s="38"/>
+      <c r="R31" s="44"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="8">
         <v>0.25</v>
       </c>
@@ -1890,16 +1902,16 @@
       <c r="Q32" s="8">
         <v>0</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="R32" s="44"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -1927,53 +1939,53 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="38"/>
+      <c r="R33" s="44"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="26" t="s">
@@ -1999,59 +2011,59 @@
       <c r="Y37" s="26"/>
       <c r="Z37" s="26"/>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="35" t="s">
+      <c r="AB37" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="M38" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="25" t="s">
+      <c r="P38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="25" t="s">
+      <c r="Q38" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="28" t="s">
         <v>15</v>
       </c>
       <c r="T38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="25" t="s">
+      <c r="U38" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V38" s="26" t="s">
@@ -2060,42 +2072,42 @@
       <c r="W38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="22" t="s">
+      <c r="X38" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="36"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="42"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
       <c r="T39" s="26"/>
-      <c r="U39" s="25"/>
+      <c r="U39" s="28"/>
       <c r="V39" s="26"/>
       <c r="W39" s="26"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="37"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="43"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
@@ -2652,13 +2664,13 @@
       <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="18">
         <v>7</v>
       </c>
@@ -2722,16 +2734,16 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="24"/>
+      <c r="AB52" s="46"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="8">
         <v>0.10750000000000001</v>
       </c>
@@ -2795,16 +2807,16 @@
       <c r="AA53" s="8">
         <v>0</v>
       </c>
-      <c r="AB53" s="24"/>
+      <c r="AB53" s="46"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="14" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +2874,7 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="24"/>
+      <c r="AB54" s="46"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
@@ -2872,51 +2884,51 @@
       <c r="F55" s="19"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="34"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="48"/>
+      <c r="AB57" s="48"/>
+      <c r="AC57" s="49"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="26" t="s">
@@ -2943,41 +2955,41 @@
       <c r="Z58" s="26"/>
       <c r="AA58" s="26"/>
       <c r="AB58" s="26"/>
-      <c r="AC58" s="35" t="s">
+      <c r="AC58" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I59" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="25" t="s">
+      <c r="K59" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="25" t="s">
+      <c r="L59" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="25" t="s">
+      <c r="M59" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="25" t="s">
+      <c r="N59" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="25" t="s">
+      <c r="O59" s="28" t="s">
         <v>15</v>
       </c>
       <c r="P59" s="26" t="s">
@@ -2989,7 +3001,7 @@
       <c r="R59" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="29" t="s">
+      <c r="S59" s="50" t="s">
         <v>14</v>
       </c>
       <c r="T59" s="26" t="s">
@@ -3013,27 +3025,27 @@
       <c r="Z59" s="26"/>
       <c r="AA59" s="26"/>
       <c r="AB59" s="26"/>
-      <c r="AC59" s="36"/>
+      <c r="AC59" s="42"/>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
-      <c r="S60" s="29"/>
+      <c r="S60" s="50"/>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="26"/>
@@ -3043,7 +3055,7 @@
       <c r="Z60" s="26"/>
       <c r="AA60" s="26"/>
       <c r="AB60" s="26"/>
-      <c r="AC60" s="37"/>
+      <c r="AC60" s="43"/>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
@@ -3676,13 +3688,13 @@
       <c r="AC72" s="4"/>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
       <c r="G73" s="18">
         <v>7</v>
       </c>
@@ -3743,16 +3755,16 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="24"/>
+      <c r="AC73" s="46"/>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="8">
         <v>4.3429857142857145E-2</v>
       </c>
@@ -3819,16 +3831,16 @@
       <c r="AB74" s="8">
         <v>0</v>
       </c>
-      <c r="AC74" s="24"/>
+      <c r="AC74" s="46"/>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
@@ -3889,68 +3901,44 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="24"/>
+      <c r="AC75" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B36:AB36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:AA37"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="AC73:AC75"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B57:AC57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:AB58"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="AA59:AA60"/>
+    <mergeCell ref="AB59:AB60"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="AB52:AB54"/>
     <mergeCell ref="B53:F53"/>
@@ -3973,40 +3961,64 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="B57:AC57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:AB58"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="AA59:AA60"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="AC73:AC75"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B36:AB36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:AA37"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
